--- a/stuff/Igloo-srv-list.xlsx
+++ b/stuff/Igloo-srv-list.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierrer\Documents\Github\Igloo-POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierrer\Documents\Github\Igloo-POC\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Machine Sizes" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Machine Sizes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="302">
   <si>
     <t>Server</t>
   </si>
@@ -373,9 +377,6 @@
   </si>
   <si>
     <t>A1v2</t>
-  </si>
-  <si>
-    <t>D1v2</t>
   </si>
   <si>
     <t>D2v2</t>
@@ -902,6 +903,39 @@
   <si>
     <t>Column4</t>
   </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Cores</t>
+  </si>
+  <si>
+    <t>SKU SERIES</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>NEW LIMIT</t>
+  </si>
+  <si>
+    <t>Av2 Series</t>
+  </si>
+  <si>
+    <t>Dv2 Series</t>
+  </si>
+  <si>
+    <t>F Series</t>
+  </si>
+  <si>
+    <t>G Series</t>
+  </si>
 </sst>
 </file>
 
@@ -911,7 +945,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,16 +982,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF252525"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -976,12 +1032,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,12 +1122,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="68">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1117,6 +1213,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1135,6 +1234,25 @@
       </font>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1172,8 +1290,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -1192,6 +1347,25 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1351,6 +1525,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
         <name val="Segoe UI Light"/>
         <scheme val="none"/>
@@ -1399,100 +1592,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1721,57 +1820,1198 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pierre Roman" refreshedDate="42899.156733564814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="54">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Server" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ServerName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="NameLength" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="20"/>
+    </cacheField>
+    <cacheField name="OS" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ImageName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="StorageAccount" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="subnet" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="AvailabilitySet" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="OSDiskSize" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="400"/>
+    </cacheField>
+    <cacheField name="DataDiskSize" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="2048"/>
+    </cacheField>
+    <cacheField name="Azure Instance Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="VMSize" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Standard_A1_v2"/>
+        <s v="Standard_A2m_v2"/>
+        <s v="Standard_A2_v2"/>
+        <s v="Standard_A4m_v2"/>
+        <s v="Standard_D2_v2"/>
+        <s v="Standard_F4"/>
+        <s v="Standard_F8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="$/hr" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.2999999999999999E-2" maxValue="0.59799999999999998"/>
+    </cacheField>
+    <cacheField name="number of days" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="19"/>
+    </cacheField>
+    <cacheField name="Total for June" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.167999999999999" maxValue="272.68799999999999"/>
+    </cacheField>
+    <cacheField name="Cores" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="54">
+  <r>
+    <s v="Monitoring Server 03 (New Relic)"/>
+    <s v="POC-EUS-Monitor03"/>
+    <n v="17"/>
+    <s v="Linux"/>
+    <s v="CentOS73"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <s v="None"/>
+    <s v="A1v2"/>
+    <x v="0"/>
+    <n v="5.2999999999999999E-2"/>
+    <n v="19"/>
+    <n v="24.167999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Kafka Node 01"/>
+    <s v="POC-EUS-Kafka01"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS74"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kafka Node 02"/>
+    <s v="POC-EUS-Kafka02"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS75"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kafka Node 03"/>
+    <s v="POC-EUS-Kafka03"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS76"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Redis Node 01"/>
+    <s v="POC-EUS-Redis01"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS77"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="50"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Redis Node 02"/>
+    <s v="POC-EUS-Redis02"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS78"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="50"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Redis Node 03"/>
+    <s v="POC-EUS-Redis03"/>
+    <n v="15"/>
+    <s v="Linux"/>
+    <s v="CentOS79"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="50"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Solr Node 01"/>
+    <s v="POC-EUS-SOL01"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS80"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="16"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Solr Node 02"/>
+    <s v="POC-EUS-SOL02"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS81"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="16"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Solr Node 03"/>
+    <s v="POC-EUS-SOL03"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS82"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="16"/>
+    <n v="80"/>
+    <s v="A2mv2"/>
+    <x v="1"/>
+    <n v="0.14499999999999999"/>
+    <n v="19"/>
+    <n v="66.11999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SMTP Server 01"/>
+    <s v="POC-EUS-SMTP01"/>
+    <n v="14"/>
+    <s v="Linux"/>
+    <s v="CentOS85"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SMTP Server 02"/>
+    <s v="POC-EUS-SMTP02"/>
+    <n v="14"/>
+    <s v="Linux"/>
+    <s v="CentOS86"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SPAM Server 01"/>
+    <s v="POC-EUS-SPAM01"/>
+    <n v="14"/>
+    <s v="Linux"/>
+    <s v="CentOS87"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SPAM Server 02"/>
+    <s v="POC-EUS-SPAM02"/>
+    <n v="14"/>
+    <s v="Linux"/>
+    <s v="CentOS88"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deploy Server - Linux"/>
+    <s v="POC-EUS-Deploy-Linux"/>
+    <n v="20"/>
+    <s v="Linux"/>
+    <s v="CentOS83"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="20"/>
+    <n v="50"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kafka Management Server"/>
+    <s v="POC-EUS-Kafka-Man"/>
+    <n v="17"/>
+    <s v="Linux"/>
+    <s v="CentOS84"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="20"/>
+    <s v="None"/>
+    <s v="A2v2"/>
+    <x v="2"/>
+    <n v="0.111"/>
+    <n v="19"/>
+    <n v="50.616"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ELK Node 01"/>
+    <s v="POC-EUS-ELK01"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS89"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <s v="None"/>
+    <s v="A4mv2"/>
+    <x v="3"/>
+    <n v="0.30299999999999999"/>
+    <n v="19"/>
+    <n v="138.16800000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ELK Node 02"/>
+    <s v="POC-EUS-ELK02"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS90"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <s v="None"/>
+    <s v="A4mv2"/>
+    <x v="3"/>
+    <n v="0.30299999999999999"/>
+    <n v="19"/>
+    <n v="138.16800000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="ELK Node 03"/>
+    <s v="POC-EUS-ELK03"/>
+    <n v="13"/>
+    <s v="Linux"/>
+    <s v="CentOS91"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="20"/>
+    <s v="None"/>
+    <s v="A4mv2"/>
+    <x v="3"/>
+    <n v="0.30299999999999999"/>
+    <n v="19"/>
+    <n v="138.16800000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="FTP"/>
+    <s v="POC-EUS-FTP"/>
+    <n v="11"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <n v="300"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cron Server"/>
+    <s v="POC-EUS-CROn"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Datafeeds Server 01"/>
+    <s v="POC-EUS-feed01"/>
+    <n v="14"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Datafeeds Server 02"/>
+    <s v="POC-EUS-feed02"/>
+    <n v="14"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="DFS Server 01"/>
+    <s v="POC-EUS-DFS01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="DFS Server 02"/>
+    <s v="POC-EUS-DFS02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Diff Server"/>
+    <s v="POC-EUS-DIFF"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ICS Server 01"/>
+    <s v="POC-EUS-ICS01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ICS Server 02"/>
+    <s v="POC-EUS-ICS02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Internal Web Services 01 (ie. CCS)"/>
+    <s v="POC-EUS-WServ01"/>
+    <n v="15"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Internal Web Services 02 (ie. CCS)"/>
+    <s v="POC-EUS-WServ02"/>
+    <n v="15"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mobile Data Processor Server 01"/>
+    <s v="POC-EUS-Mob01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mobile Data Processor Server 01"/>
+    <s v="POC-EUS-Mob02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Monitoring Server 02 (Solarwinds)"/>
+    <s v="POC-EUS-mon02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <n v="15"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Monitoring Server 04 (Firewall Analyzer)"/>
+    <s v="POC-EUS-mon04"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="400"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="OAuth Web Server 01"/>
+    <s v="POC-EUS-OAuth01"/>
+    <n v="15"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="OAuth Web Server 02"/>
+    <s v="POC-EUS-OAuth02"/>
+    <n v="15"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RabbitMQ Cluster Node 01"/>
+    <s v="POC-EUS-RMQ01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RabbitMQ Cluster Node 01"/>
+    <s v="POC-EUS-RMQ02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SAP Server"/>
+    <s v="POC-EUS-SAP"/>
+    <n v="11"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Domain Controller 01"/>
+    <s v="POC-EUS-DC01"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Domain Controller 02"/>
+    <s v="POC-EUS-DC02"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Certificiate Authority"/>
+    <s v="POC-EUS-CA"/>
+    <n v="10"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="40"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Admin Jumpbox"/>
+    <s v="POC-EUS-Jump"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="135"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Doc Engine Server 01"/>
+    <s v="POC-EUS-Doc01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Doc Engine Server 02"/>
+    <s v="POC-EUS-Doc02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deploy Server - Windows"/>
+    <s v="POC-EUS-Dep-Win"/>
+    <n v="15"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="90"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Windows Update Services (WSUS)"/>
+    <s v="POC-EUS-WSUS"/>
+    <n v="12"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="mgmt"/>
+    <s v="None"/>
+    <n v="60"/>
+    <n v="200"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Web Server 01"/>
+    <s v="POC-EUS-Web01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="web"/>
+    <s v="Igloo-POC-Web-AS"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Web Server 02"/>
+    <s v="POC-EUS-Web02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="web"/>
+    <s v="Igloo-POC-Web-AS"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Web Server 03"/>
+    <s v="POC-EUS-Web03"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="web"/>
+    <s v="Igloo-POC-Web-AS"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Web Server 04"/>
+    <s v="POC-EUS-Web04"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="web"/>
+    <s v="Igloo-POC-Web-AS"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="D2v2"/>
+    <x v="4"/>
+    <n v="0.59799999999999998"/>
+    <n v="19"/>
+    <n v="272.68799999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Video Engine Server 01"/>
+    <s v="POC-EUS-Vid01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="F4"/>
+    <x v="5"/>
+    <n v="0.25700000000000001"/>
+    <n v="19"/>
+    <n v="117.19200000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Video Engine Server 02"/>
+    <s v="POC-EUS-Vid02"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstoragestd"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="60"/>
+    <s v="None"/>
+    <s v="F4"/>
+    <x v="5"/>
+    <n v="0.25700000000000001"/>
+    <n v="19"/>
+    <n v="117.19200000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Monitoring Server 01 (PRTG)"/>
+    <s v="POC-EUS-mon01"/>
+    <n v="13"/>
+    <s v="Windows"/>
+    <s v="Win2012R2"/>
+    <s v="igloovmstorageprem"/>
+    <s v="biz"/>
+    <s v="None"/>
+    <n v="40"/>
+    <n v="2048"/>
+    <s v="F8"/>
+    <x v="6"/>
+    <n v="0.501"/>
+    <n v="19"/>
+    <n v="228.45599999999999"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="165" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Cores" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O56" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A1:O55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P56" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:P55"/>
   <sortState ref="A2:M55">
     <sortCondition ref="K1:K55"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Server" dataDxfId="63" totalsRowDxfId="14"/>
-    <tableColumn id="6" name="ServerName" dataDxfId="62" totalsRowDxfId="13"/>
-    <tableColumn id="7" name="NameLength" dataDxfId="61" totalsRowDxfId="12">
+  <tableColumns count="16">
+    <tableColumn id="1" name="Server" dataDxfId="65" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="ServerName" dataDxfId="64" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="NameLength" dataDxfId="63" totalsRowDxfId="13">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[ServerName]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="OS" dataDxfId="60" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="ImageName" dataDxfId="59" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="StorageAccount" dataDxfId="58" totalsRowDxfId="9"/>
-    <tableColumn id="8" name="subnet" dataDxfId="57" totalsRowDxfId="8"/>
-    <tableColumn id="11" name="AvailabilitySet" dataDxfId="56" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="OSDiskSize" dataDxfId="55" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="DataDiskSize" dataDxfId="54" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Azure Instance Type" dataDxfId="53" totalsRowDxfId="4"/>
-    <tableColumn id="12" name="VMSize" dataDxfId="52" totalsRowDxfId="3"/>
-    <tableColumn id="13" name="$/hr" dataDxfId="51" totalsRowDxfId="2"/>
-    <tableColumn id="14" name="number of days" dataDxfId="50" totalsRowDxfId="1"/>
-    <tableColumn id="15" name="Total for June" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="0">
+    <tableColumn id="2" name="OS" dataDxfId="62" totalsRowDxfId="12"/>
+    <tableColumn id="9" name="ImageName" dataDxfId="61" totalsRowDxfId="11"/>
+    <tableColumn id="10" name="StorageAccount" dataDxfId="60" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="subnet" dataDxfId="59" totalsRowDxfId="9"/>
+    <tableColumn id="11" name="AvailabilitySet" dataDxfId="58" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="OSDiskSize" dataDxfId="57" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="DataDiskSize" dataDxfId="56" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Azure Instance Type" dataDxfId="55" totalsRowDxfId="5"/>
+    <tableColumn id="12" name="VMSize" dataDxfId="54" totalsRowDxfId="4"/>
+    <tableColumn id="13" name="$/hr" dataDxfId="53" totalsRowDxfId="3"/>
+    <tableColumn id="14" name="number of days" dataDxfId="52" totalsRowDxfId="2"/>
+    <tableColumn id="15" name="Total for June" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total for June])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="16" name="Cores" dataDxfId="16" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A58:O62" totalsRowShown="0" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A58:O62" totalsRowShown="0" tableBorderDxfId="50">
   <autoFilter ref="A58:O62"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Appliance"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="47"/>
-    <tableColumn id="4" name="OS" dataDxfId="46"/>
-    <tableColumn id="5" name="Column5" dataDxfId="45"/>
-    <tableColumn id="6" name="Column6" dataDxfId="44"/>
-    <tableColumn id="7" name="Column7" dataDxfId="43"/>
-    <tableColumn id="8" name="Column8" dataDxfId="42"/>
-    <tableColumn id="9" name="Column9" dataDxfId="41"/>
-    <tableColumn id="10" name="Column10" dataDxfId="40"/>
-    <tableColumn id="11" name="Azure Instance" dataDxfId="39"/>
+    <tableColumn id="3" name="Column3" dataDxfId="49"/>
+    <tableColumn id="4" name="OS" dataDxfId="48"/>
+    <tableColumn id="5" name="Column5" dataDxfId="47"/>
+    <tableColumn id="6" name="Column6" dataDxfId="46"/>
+    <tableColumn id="7" name="Column7" dataDxfId="45"/>
+    <tableColumn id="8" name="Column8" dataDxfId="44"/>
+    <tableColumn id="9" name="Column9" dataDxfId="43"/>
+    <tableColumn id="10" name="Column10" dataDxfId="42"/>
+    <tableColumn id="11" name="Azure Instance" dataDxfId="41"/>
     <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="$/Hr" dataDxfId="38"/>
-    <tableColumn id="14" name="Number of Days In June" dataDxfId="37"/>
-    <tableColumn id="15" name="$/June" dataDxfId="36">
+    <tableColumn id="13" name="$/Hr" dataDxfId="40"/>
+    <tableColumn id="14" name="Number of Days In June" dataDxfId="39"/>
+    <tableColumn id="15" name="$/June" dataDxfId="38">
       <calculatedColumnFormula>SUM((N59*24)*M59)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1783,21 +3023,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A65:O69" totalsRowCount="1">
   <autoFilter ref="A65:O68"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="SQL And Data Warehouse" dataDxfId="35" totalsRowDxfId="29" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Column1" totalsRowDxfId="28" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Column2" totalsRowDxfId="27" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="4" name="OS" dataDxfId="34" totalsRowDxfId="26" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Column3" totalsRowDxfId="25" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="6" name="Column4" totalsRowDxfId="24" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Column5" totalsRowDxfId="23" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="8" name="Column6" totalsRowDxfId="22" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="9" name="Column7" totalsRowDxfId="21" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="10" name="Column8" totalsRowDxfId="20" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="11" name="Instance" dataDxfId="33" totalsRowDxfId="19" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="12" name="Column9" totalsRowDxfId="18" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="13" name="$/Hr" dataDxfId="32" totalsRowDxfId="17" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="14" name="Days In June" dataDxfId="31" totalsRowDxfId="16" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="15" name="$/June" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="15" totalsRowCellStyle="Normal 2">
+    <tableColumn id="1" name="SQL And Data Warehouse" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Column1" totalsRowDxfId="35" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Column2" totalsRowDxfId="34" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="4" name="OS" dataDxfId="33" totalsRowDxfId="32" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Column3" totalsRowDxfId="31" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="6" name="Column4" totalsRowDxfId="30" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Column5" totalsRowDxfId="29" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="8" name="Column6" totalsRowDxfId="28" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="9" name="Column7" totalsRowDxfId="27" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="10" name="Column8" totalsRowDxfId="26" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="11" name="Instance" dataDxfId="25" totalsRowDxfId="24" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="12" name="Column9" totalsRowDxfId="23" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="13" name="$/Hr" dataDxfId="22" totalsRowDxfId="21" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="14" name="Days In June" dataDxfId="20" totalsRowDxfId="19" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="15" name="$/June" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17" totalsRowCellStyle="Normal 2">
       <calculatedColumnFormula>SUM((N66*24)*M66)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table5[$/June])</totalsRowFormula>
     </tableColumn>
@@ -2118,76 +3358,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="A2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="30">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="H41" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="21.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="21.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.3984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.86328125" customWidth="1"/>
     <col min="13" max="13" width="12" style="7" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.73046875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>261</v>
+      <c r="P1" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2202,28 +3536,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I2" s="3">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M2" s="6">
         <v>5.2999999999999999E-2</v>
@@ -2235,8 +3569,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>24.167999999999999</v>
       </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2251,16 +3588,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="3">
         <v>20</v>
@@ -2272,7 +3609,7 @@
         <v>114</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M3" s="6">
         <v>0.14499999999999999</v>
@@ -2284,8 +3621,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2300,16 +3640,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" s="3">
         <v>20</v>
@@ -2321,7 +3661,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="6">
         <v>0.14499999999999999</v>
@@ -2333,8 +3673,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2349,16 +3692,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -2370,7 +3713,7 @@
         <v>114</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M5" s="6">
         <v>0.14499999999999999</v>
@@ -2382,8 +3725,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2398,16 +3744,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -2419,7 +3765,7 @@
         <v>114</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" s="6">
         <v>0.14499999999999999</v>
@@ -2431,8 +3777,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2447,16 +3796,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -2468,7 +3817,7 @@
         <v>114</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" s="6">
         <v>0.14499999999999999</v>
@@ -2480,8 +3829,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P7" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2496,16 +3848,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -2517,7 +3869,7 @@
         <v>114</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="6">
         <v>0.14499999999999999</v>
@@ -2529,8 +3881,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -2545,16 +3900,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I9" s="3">
         <v>16</v>
@@ -2566,7 +3921,7 @@
         <v>114</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" s="6">
         <v>0.14499999999999999</v>
@@ -2578,8 +3933,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2594,16 +3952,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I10" s="3">
         <v>16</v>
@@ -2615,7 +3973,7 @@
         <v>114</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" s="6">
         <v>0.14499999999999999</v>
@@ -2627,8 +3985,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P10" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -2643,16 +4004,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I11" s="3">
         <v>16</v>
@@ -2664,7 +4025,7 @@
         <v>114</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M11" s="6">
         <v>0.14499999999999999</v>
@@ -2676,8 +4037,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>66.11999999999999</v>
       </c>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2692,28 +4056,28 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I12" s="3">
         <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>112</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M12" s="6">
         <v>0.111</v>
@@ -2725,8 +4089,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2741,28 +4108,28 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I13" s="3">
         <v>40</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>112</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" s="6">
         <v>0.111</v>
@@ -2774,8 +4141,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P13" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2790,28 +4160,28 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I14" s="3">
         <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>112</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M14" s="6">
         <v>0.111</v>
@@ -2823,8 +4193,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2839,28 +4212,28 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" s="3">
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M15" s="6">
         <v>0.111</v>
@@ -2872,8 +4245,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2888,16 +4264,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -2909,7 +4285,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M16" s="6">
         <v>0.111</v>
@@ -2921,8 +4297,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2937,28 +4316,28 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>112</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17" s="6">
         <v>0.111</v>
@@ -2970,8 +4349,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>50.616</v>
       </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2986,28 +4368,28 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="3">
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>113</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" s="6">
         <v>0.30299999999999999</v>
@@ -3019,8 +4401,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>138.16800000000001</v>
       </c>
+      <c r="P18" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3035,28 +4420,28 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I19" s="3">
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>113</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19" s="6">
         <v>0.30299999999999999</v>
@@ -3068,8 +4453,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>138.16800000000001</v>
       </c>
+      <c r="P19" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3084,28 +4472,28 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I20" s="3">
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>113</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" s="6">
         <v>0.30299999999999999</v>
@@ -3117,8 +4505,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>138.16800000000001</v>
       </c>
+      <c r="P20" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -3133,16 +4524,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I21" s="3">
         <v>40</v>
@@ -3157,17 +4548,20 @@
         <v>163</v>
       </c>
       <c r="M21" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N21" s="3">
         <v>19</v>
       </c>
       <c r="O21" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -3182,22 +4576,22 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I22" s="3">
         <v>60</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>116</v>
@@ -3206,17 +4600,20 @@
         <v>163</v>
       </c>
       <c r="M22" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N22" s="3">
         <v>19</v>
       </c>
       <c r="O22" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -3231,22 +4628,22 @@
         <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I23" s="3">
         <v>60</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>116</v>
@@ -3255,17 +4652,20 @@
         <v>163</v>
       </c>
       <c r="M23" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N23" s="3">
         <v>19</v>
       </c>
       <c r="O23" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3280,22 +4680,22 @@
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I24" s="3">
         <v>60</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>116</v>
@@ -3304,17 +4704,20 @@
         <v>163</v>
       </c>
       <c r="M24" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N24" s="3">
         <v>19</v>
       </c>
       <c r="O24" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3329,22 +4732,22 @@
         <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I25" s="3">
         <v>40</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>116</v>
@@ -3353,17 +4756,20 @@
         <v>163</v>
       </c>
       <c r="M25" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N25" s="3">
         <v>19</v>
       </c>
       <c r="O25" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -3378,22 +4784,22 @@
         <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I26" s="3">
         <v>40</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>116</v>
@@ -3402,17 +4808,20 @@
         <v>163</v>
       </c>
       <c r="M26" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N26" s="3">
         <v>19</v>
       </c>
       <c r="O26" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -3427,22 +4836,22 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I27" s="3">
         <v>60</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>116</v>
@@ -3451,17 +4860,20 @@
         <v>163</v>
       </c>
       <c r="M27" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N27" s="3">
         <v>19</v>
       </c>
       <c r="O27" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3476,22 +4888,22 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I28" s="3">
         <v>60</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>116</v>
@@ -3500,17 +4912,20 @@
         <v>163</v>
       </c>
       <c r="M28" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N28" s="3">
         <v>19</v>
       </c>
       <c r="O28" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -3525,22 +4940,22 @@
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I29" s="3">
         <v>60</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>116</v>
@@ -3549,17 +4964,20 @@
         <v>163</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N29" s="3">
         <v>19</v>
       </c>
       <c r="O29" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -3574,22 +4992,22 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I30" s="3">
         <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>116</v>
@@ -3598,17 +5016,20 @@
         <v>163</v>
       </c>
       <c r="M30" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N30" s="3">
         <v>19</v>
       </c>
       <c r="O30" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P30" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -3623,22 +5044,22 @@
         <v>4</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I31" s="3">
         <v>40</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>116</v>
@@ -3647,17 +5068,20 @@
         <v>163</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N31" s="3">
         <v>19</v>
       </c>
       <c r="O31" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -3672,22 +5096,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I32" s="3">
         <v>40</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>116</v>
@@ -3696,17 +5120,20 @@
         <v>163</v>
       </c>
       <c r="M32" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N32" s="3">
         <v>19</v>
       </c>
       <c r="O32" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -3721,22 +5148,22 @@
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I33" s="3">
         <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>116</v>
@@ -3745,17 +5172,20 @@
         <v>163</v>
       </c>
       <c r="M33" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N33" s="3">
         <v>19</v>
       </c>
       <c r="O33" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3770,16 +5200,16 @@
         <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I34" s="3">
         <v>40</v>
@@ -3794,17 +5224,20 @@
         <v>163</v>
       </c>
       <c r="M34" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N34" s="3">
         <v>19</v>
       </c>
       <c r="O34" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P34" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3819,22 +5252,22 @@
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>116</v>
@@ -3843,17 +5276,20 @@
         <v>163</v>
       </c>
       <c r="M35" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N35" s="3">
         <v>19</v>
       </c>
       <c r="O35" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3868,22 +5304,22 @@
         <v>4</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I36" s="3">
         <v>40</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>116</v>
@@ -3892,17 +5328,20 @@
         <v>163</v>
       </c>
       <c r="M36" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N36" s="3">
         <v>19</v>
       </c>
       <c r="O36" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P36" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3917,22 +5356,22 @@
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I37" s="3">
         <v>40</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>116</v>
@@ -3941,17 +5380,20 @@
         <v>163</v>
       </c>
       <c r="M37" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N37" s="3">
         <v>19</v>
       </c>
       <c r="O37" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3966,22 +5408,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I38" s="3">
         <v>40</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>116</v>
@@ -3990,17 +5432,20 @@
         <v>163</v>
       </c>
       <c r="M38" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N38" s="3">
         <v>19</v>
       </c>
       <c r="O38" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P38" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -4015,22 +5460,22 @@
         <v>4</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I39" s="3">
         <v>40</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>116</v>
@@ -4039,17 +5484,20 @@
         <v>163</v>
       </c>
       <c r="M39" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N39" s="3">
         <v>19</v>
       </c>
       <c r="O39" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -4064,22 +5512,22 @@
         <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I40" s="3">
         <v>60</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>116</v>
@@ -4088,17 +5536,20 @@
         <v>163</v>
       </c>
       <c r="M40" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N40" s="3">
         <v>19</v>
       </c>
       <c r="O40" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P40" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -4113,22 +5564,22 @@
         <v>4</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I41" s="3">
         <v>40</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>116</v>
@@ -4137,17 +5588,20 @@
         <v>163</v>
       </c>
       <c r="M41" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N41" s="3">
         <v>19</v>
       </c>
       <c r="O41" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -4162,22 +5616,22 @@
         <v>4</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I42" s="3">
         <v>40</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>116</v>
@@ -4186,17 +5640,20 @@
         <v>163</v>
       </c>
       <c r="M42" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N42" s="3">
         <v>19</v>
       </c>
       <c r="O42" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -4211,22 +5668,22 @@
         <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I43" s="3">
         <v>40</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>116</v>
@@ -4235,17 +5692,20 @@
         <v>163</v>
       </c>
       <c r="M43" s="6">
-        <v>0.3</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N43" s="3">
         <v>19</v>
       </c>
       <c r="O43" s="10">
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
-        <v>136.79999999999998</v>
+        <v>272.68799999999999</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -4260,28 +5720,28 @@
         <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I44" s="3">
         <v>135</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M44" s="6">
         <v>0.59799999999999998</v>
@@ -4293,8 +5753,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P44" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -4309,28 +5772,28 @@
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I45" s="3">
         <v>60</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" s="6">
         <v>0.59799999999999998</v>
@@ -4342,8 +5805,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P45" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -4358,28 +5824,28 @@
         <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I46" s="3">
         <v>60</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M46" s="6">
         <v>0.59799999999999998</v>
@@ -4391,8 +5857,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P46" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -4407,28 +5876,28 @@
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I47" s="3">
         <v>90</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M47" s="6">
         <v>0.59799999999999998</v>
@@ -4440,8 +5909,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P47" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -4456,16 +5928,16 @@
         <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I48" s="3">
         <v>60</v>
@@ -4474,10 +5946,10 @@
         <v>200</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M48" s="6">
         <v>0.59799999999999998</v>
@@ -4489,8 +5961,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P48" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -4505,28 +5980,28 @@
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I49" s="3">
         <v>60</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M49" s="6">
         <v>0.59799999999999998</v>
@@ -4538,8 +6013,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -4554,28 +6032,28 @@
         <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I50" s="3">
         <v>60</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M50" s="6">
         <v>0.59799999999999998</v>
@@ -4587,8 +6065,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P50" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -4603,28 +6084,28 @@
         <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I51" s="3">
         <v>60</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" s="6">
         <v>0.59799999999999998</v>
@@ -4636,8 +6117,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P51" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -4652,28 +6136,28 @@
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I52" s="3">
         <v>60</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M52" s="6">
         <v>0.59799999999999998</v>
@@ -4685,8 +6169,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>272.68799999999999</v>
       </c>
+      <c r="P52" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -4701,28 +6188,28 @@
         <v>4</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I53" s="3">
         <v>60</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M53" s="6">
         <v>0.25700000000000001</v>
@@ -4734,8 +6221,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>117.19200000000001</v>
       </c>
+      <c r="P53" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -4750,28 +6240,28 @@
         <v>4</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I54" s="3">
         <v>60</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M54" s="6">
         <v>0.25700000000000001</v>
@@ -4783,8 +6273,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>117.19200000000001</v>
       </c>
+      <c r="P54" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -4799,16 +6292,16 @@
         <v>4</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I55" s="3">
         <v>40</v>
@@ -4820,7 +6313,7 @@
         <v>32</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M55" s="6">
         <v>0.501</v>
@@ -4832,8 +6325,11 @@
         <f>SUM((Table1[[#This Row],[number of days]]*24)*Table1[[#This Row],[$/hr]])</f>
         <v>228.45599999999999</v>
       </c>
+      <c r="P55" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -4842,65 +6338,66 @@
       <c r="N56" s="3"/>
       <c r="O56" s="10">
         <f>SUM(Table1[Total for June])</f>
-        <v>7400.8800000000037</v>
-      </c>
+        <v>10526.304000000002</v>
+      </c>
+      <c r="P56" s="3"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" t="s">
         <v>276</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L58" t="s">
-        <v>277</v>
-      </c>
-      <c r="M58" s="7" t="s">
+      <c r="N58" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="O58" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="O58" s="10" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M59" s="7">
         <v>0.59799999999999998</v>
@@ -4913,15 +6410,15 @@
         <v>272.68799999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M60" s="7">
         <v>0.59799999999999998</v>
@@ -4934,15 +6431,15 @@
         <v>272.68799999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M61" s="7">
         <v>1.196</v>
@@ -4955,15 +6452,15 @@
         <v>545.37599999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M62" s="7">
         <v>1.196</v>
@@ -4976,65 +6473,65 @@
         <v>545.37599999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="O63" s="12">
         <f>SUM(O59:O62)</f>
         <v>1636.1279999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="O64" s="12"/>
     </row>
     <row r="65" spans="1:16384">
       <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B65" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="L65" t="s">
         <v>274</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="M65" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N65" t="s">
         <v>288</v>
       </c>
-      <c r="L65" t="s">
-        <v>275</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="N65" t="s">
-        <v>289</v>
-      </c>
       <c r="O65" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:16384">
       <c r="A66" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
@@ -5048,7 +6545,7 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="21">
@@ -5064,7 +6561,7 @@
     </row>
     <row r="67" spans="1:16384" ht="16.5">
       <c r="A67" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -5078,7 +6575,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L67" s="18"/>
       <c r="M67" s="21">
@@ -21463,7 +22960,7 @@
     </row>
     <row r="68" spans="1:16384" ht="16.5">
       <c r="A68" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -21477,7 +22974,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="21">
@@ -54249,9 +55746,9 @@
       <c r="XFC69" s="17"/>
       <c r="XFD69" s="17"/>
     </row>
-    <row r="71" spans="1:16384" ht="15.75" thickBot="1">
+    <row r="71" spans="1:16384" ht="14.65" thickBot="1">
       <c r="A71" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -54268,10 +55765,10 @@
       <c r="N71" s="13"/>
       <c r="O71" s="16">
         <f>SUM(O56,O63,Table5[[#Totals],[$/June]])</f>
-        <v>11067.120000000003</v>
+        <v>14192.544000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:16384" ht="15.75" thickTop="1"/>
+    <row r="72" spans="1:16384" ht="14.65" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54295,47 +55792,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L65" sqref="J61:L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -54355,7 +55852,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -54375,7 +55872,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -54395,7 +55892,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -54415,7 +55912,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -54435,7 +55932,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -54455,7 +55952,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -54475,7 +55972,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -54495,7 +55992,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -54515,7 +56012,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -54535,7 +56032,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -54555,7 +56052,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -54575,7 +56072,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -54595,7 +56092,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -54615,7 +56112,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -54635,7 +56132,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -54655,7 +56152,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -54675,7 +56172,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -54695,7 +56192,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -54715,7 +56212,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -54735,7 +56232,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -54755,7 +56252,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -54775,7 +56272,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -54795,7 +56292,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -54815,7 +56312,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -54835,7 +56332,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -54855,7 +56352,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -54875,7 +56372,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -54895,7 +56392,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -54915,7 +56412,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -54935,7 +56432,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -54955,7 +56452,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -54975,7 +56472,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -54995,7 +56492,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -55015,7 +56512,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -55035,7 +56532,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -55055,7 +56552,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -55075,7 +56572,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -55095,7 +56592,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -55115,7 +56612,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -55135,7 +56632,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -55155,7 +56652,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -55175,7 +56672,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -55195,7 +56692,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -55215,7 +56712,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -55235,7 +56732,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -55255,7 +56752,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -55273,9 +56770,9 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -55293,9 +56790,9 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -55313,9 +56810,9 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -55333,9 +56830,9 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -55353,9 +56850,9 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -55373,9 +56870,9 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54">
         <v>20</v>
@@ -55393,9 +56890,9 @@
         <v>286720</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -55413,9 +56910,9 @@
         <v>14336</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -55433,9 +56930,9 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -55453,9 +56950,9 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -55473,9 +56970,9 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -55493,9 +56990,9 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -55513,9 +57010,9 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -55532,10 +57029,19 @@
       <c r="F61">
         <v>114688</v>
       </c>
+      <c r="J61" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -55552,10 +57058,19 @@
       <c r="F62">
         <v>229376</v>
       </c>
+      <c r="J62" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K62" s="32">
+        <v>10</v>
+      </c>
+      <c r="L62" s="33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -55572,10 +57087,19 @@
       <c r="F63">
         <v>4096</v>
       </c>
+      <c r="J63" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K63" s="34">
+        <v>40</v>
+      </c>
+      <c r="L63" s="33">
+        <v>100</v>
+      </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -55592,10 +57116,19 @@
       <c r="F64">
         <v>8192</v>
       </c>
+      <c r="J64" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="34">
+        <v>10</v>
+      </c>
+      <c r="L64" s="33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -55612,10 +57145,19 @@
       <c r="F65">
         <v>16384</v>
       </c>
+      <c r="J65" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K65" s="34">
+        <v>10</v>
+      </c>
+      <c r="L65" s="33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -55633,9 +57175,9 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67">
         <v>16</v>
@@ -55653,9 +57195,9 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -55673,9 +57215,9 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -55693,9 +57235,9 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -55713,9 +57255,9 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -55733,9 +57275,9 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -55753,9 +57295,9 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -55773,9 +57315,9 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -55793,9 +57335,9 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75">
         <v>16</v>
@@ -55813,9 +57355,9 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -55833,9 +57375,9 @@
         <v>393216</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -55853,9 +57395,9 @@
         <v>786432</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -55873,9 +57415,9 @@
         <v>1572864</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -55893,9 +57435,9 @@
         <v>3145728</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -55915,7 +57457,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -55935,7 +57477,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -55955,7 +57497,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -55975,7 +57517,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -55995,7 +57537,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -56015,7 +57557,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -56035,7 +57577,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -56055,7 +57597,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -56075,7 +57617,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -56095,7 +57637,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -56115,7 +57657,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -56135,7 +57677,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -56155,7 +57697,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -56175,7 +57717,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -56195,7 +57737,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -56215,7 +57757,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -56235,7 +57777,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B97">
         <v>16</v>
@@ -56255,7 +57797,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B98">
         <v>64</v>
@@ -56275,7 +57817,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B99">
         <v>128</v>
